--- a/medicine/Pharmacie/Zédoaire/Zédoaire.xlsx
+++ b/medicine/Pharmacie/Zédoaire/Zédoaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Z%C3%A9doaire</t>
+          <t>Zédoaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Curcuma zedoaria
 La zédoaire (Curcuma zedoaria) est une espèce de plantes à fleurs du genre Curcuma et de la famille des Zingibéracées. C'est une plante herbacée rhizomateuse vivace originaire de l'Inde et de l'Indonésie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Z%C3%A9doaire</t>
+          <t>Zédoaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La zédoaire pousse dans les forêts pluvieuses tropicales et subtropicales. Ses fleurs parfumées sont jaunes avec des bractées rouges et vertes. Le rhizome est tubéreux et très ramifié. Les feuilles sont grandes, alternes et entières et les tiges aériennes dressées peuvent atteindre 1 m de haut.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Z%C3%A9doaire</t>
+          <t>Zédoaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rhizome comestible de la zédoaire est de couleur orange vif à l'intérieur et son odeur rappelle celle de la mangue. Mais sa saveur ressemble plutôt au gingembre, avec un arrière-goût très amer. En Indonésie, on le réduit en poudre et on l'utilise comme épice dans la préparation du curry, tandis qu'en Inde, on le consomme plutôt frais ou mariné. Les jeunes feuilles sont aussi comestibles et ont un goût citronné.
 Cette épice a été introduite en Europe par les Arabes vers le VIe siècle, mais son utilisation est maintenant très rare en occident, où elle a été remplacée par le gingembre.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Z%C3%A9doaire</t>
+          <t>Zédoaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Amomum zedoaria Christm. in G.F.Christmann &amp; G.W.F.Panzer, Vollst. Pflanzensyst. 5: 12 (1779).
 Curcuma malabarica Velay., Amalraj &amp; Mural., J. Econ. Taxon. Bot. 14: 189 (1990).
